--- a/sample/Template.xlsx
+++ b/sample/Template.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_9248858D83F95A82E03522598F3E8C18510380C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{520705CA-D356-42FE-95B2-9A4126171912}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kp-spamsku\sample\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E500D672-05E9-4576-B2F2-10E9B0CD56A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -27,9 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>NAMA</t>
   </si>
   <si>
@@ -41,12 +43,15 @@
   <si>
     <t>2 = Sos</t>
   </si>
+  <si>
+    <t>NO PELANGGAN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,787 +435,789 @@
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="4"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="4"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="4"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="4"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="4"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="4"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="4"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="4"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="4"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="4"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="4"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="4"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="4"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="4"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="4"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="4"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="4"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="4"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="4"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="4"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="4"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="4"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="4"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="4"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="4"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="4"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="4"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="4"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="4"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="4"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="4"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="4"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="4"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="4"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="4"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="4"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="4"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="4"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="4"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="4"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="4"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="4"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="4"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="4"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="4"/>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="4"/>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="4"/>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="4"/>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="4"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="4"/>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="4"/>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="4"/>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="4"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="4"/>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="4"/>
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="4"/>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="4"/>
       <c r="C153" s="1"/>
